--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -25,6 +25,9 @@
     <t>DargoTamber</t>
   </si>
   <si>
+    <t>0xN1kU_H4X_!</t>
+  </si>
+  <si>
     <t>kharayo1x</t>
   </si>
   <si>
@@ -49,18 +52,15 @@
     <t>༒𝙰sʜᴡɪɴ༒</t>
   </si>
   <si>
-    <t>0xN1kU_H4X_!</t>
-  </si>
-  <si>
     <t>luffy</t>
   </si>
   <si>
+    <t>YoursTruly</t>
+  </si>
+  <si>
     <t>Iconic_Whisper</t>
   </si>
   <si>
-    <t>YoursTruly</t>
-  </si>
-  <si>
     <t>MoonLight</t>
   </si>
   <si>
@@ -85,49 +85,49 @@
     <t>thatguysbroke</t>
   </si>
   <si>
+    <t>GNU</t>
+  </si>
+  <si>
     <t>ahlai:3</t>
   </si>
   <si>
     <t>Mandip</t>
   </si>
   <si>
+    <t>Cosmic</t>
+  </si>
+  <si>
+    <t>GUTS</t>
+  </si>
+  <si>
     <t>10y</t>
   </si>
   <si>
-    <t>Cosmic</t>
-  </si>
-  <si>
-    <t>GUTS</t>
-  </si>
-  <si>
     <t>X-night</t>
   </si>
   <si>
+    <t>golbeda</t>
+  </si>
+  <si>
+    <t>wigglewiggle</t>
+  </si>
+  <si>
     <t>LUCKY_MJ_36457</t>
   </si>
   <si>
-    <t>golbeda</t>
-  </si>
-  <si>
-    <t>wigglewiggle</t>
+    <t>MauLana Rhoades</t>
   </si>
   <si>
     <t>hello_you0</t>
   </si>
   <si>
-    <t>MauLana Rhoades</t>
-  </si>
-  <si>
-    <t>GNU</t>
-  </si>
-  <si>
     <t>Adhyan Tamang</t>
   </si>
   <si>
+    <t>Ansees</t>
+  </si>
+  <si>
     <t>404Ninjaaa</t>
-  </si>
-  <si>
-    <t>Ansees</t>
   </si>
   <si>
     <t>Abyss_Walker</t>
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7900</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5350</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4750</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4400</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -566,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2850</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -574,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2350</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2100</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -590,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2050</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1950</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -614,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1750</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -622,7 +622,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1450</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -702,7 +702,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -710,7 +710,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>350</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -718,7 +718,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -742,7 +742,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -750,7 +750,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -790,7 +790,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:2">

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7450</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5850</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5100</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -566,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4050</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2000</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="11" spans="1:2">

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -46,12 +46,12 @@
     <t>kinachaiyo</t>
   </si>
   <si>
+    <t>༒𝙰sʜᴡɪɴ༒</t>
+  </si>
+  <si>
     <t>Shrenav</t>
   </si>
   <si>
-    <t>༒𝙰sʜᴡɪɴ༒</t>
-  </si>
-  <si>
     <t>luffy</t>
   </si>
   <si>
@@ -79,12 +79,12 @@
     <t>aayush</t>
   </si>
   <si>
+    <t>thatguysbroke</t>
+  </si>
+  <si>
     <t>Anmuu</t>
   </si>
   <si>
-    <t>thatguysbroke</t>
-  </si>
-  <si>
     <t>GNU</t>
   </si>
   <si>
@@ -103,49 +103,49 @@
     <t>10y</t>
   </si>
   <si>
+    <t>hello_you0</t>
+  </si>
+  <si>
+    <t>golbeda</t>
+  </si>
+  <si>
+    <t>LUCKY_MJ_36457</t>
+  </si>
+  <si>
+    <t>MauLana Rhoades</t>
+  </si>
+  <si>
     <t>X-night</t>
   </si>
   <si>
-    <t>golbeda</t>
+    <t>Abyss_Walker</t>
+  </si>
+  <si>
+    <t>Adhyan Tamang</t>
+  </si>
+  <si>
+    <t>Ansees</t>
+  </si>
+  <si>
+    <t>404Ninjaaa</t>
+  </si>
+  <si>
+    <t>SAKUNA</t>
+  </si>
+  <si>
+    <t>Tyrant</t>
   </si>
   <si>
     <t>wigglewiggle</t>
   </si>
   <si>
-    <t>LUCKY_MJ_36457</t>
-  </si>
-  <si>
-    <t>MauLana Rhoades</t>
-  </si>
-  <si>
-    <t>hello_you0</t>
-  </si>
-  <si>
-    <t>Adhyan Tamang</t>
-  </si>
-  <si>
-    <t>Ansees</t>
-  </si>
-  <si>
-    <t>404Ninjaaa</t>
-  </si>
-  <si>
-    <t>Abyss_Walker</t>
-  </si>
-  <si>
-    <t>SAKUNA</t>
-  </si>
-  <si>
     <t>krazy</t>
   </si>
   <si>
+    <t>Shrawan1234</t>
+  </si>
+  <si>
     <t>Yugal</t>
-  </si>
-  <si>
-    <t>Shrawan1234</t>
-  </si>
-  <si>
-    <t>Tyrant</t>
   </si>
   <si>
     <t>प्रणय</t>
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7400</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6150</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5050</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4450</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -574,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2700</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -590,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2100</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1950</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -622,7 +622,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1650</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -646,7 +646,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -654,7 +654,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>850</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -662,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>700</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -678,7 +678,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>650</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -694,7 +694,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>550</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -710,7 +710,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -750,7 +750,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -790,7 +790,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:2">

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -22,10 +22,10 @@
     <t>Points</t>
   </si>
   <si>
+    <t>0xN1kU_H4X_!</t>
+  </si>
+  <si>
     <t>DargoTamber</t>
-  </si>
-  <si>
-    <t>0xN1kU_H4X_!</t>
   </si>
   <si>
     <t>kharayo1x</t>
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7250</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4850</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4350</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2250</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -622,7 +622,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="14" spans="1:2">

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7200</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7250</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7350</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>7200</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4800</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4300</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -566,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4000</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7650</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>7150</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4750</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4250</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -566,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3950</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -574,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2600</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -606,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1900</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -638,7 +638,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1250</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="16" spans="1:2">

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -14,12 +14,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>User</t>
   </si>
   <si>
     <t>Points</t>
+  </si>
+  <si>
+    <t>0xN1kU_H4X_!</t>
+  </si>
+  <si>
+    <t>DargoTamber</t>
+  </si>
+  <si>
+    <t>kharayo1x</t>
+  </si>
+  <si>
+    <t>p0tato</t>
+  </si>
+  <si>
+    <t>MrBender</t>
+  </si>
+  <si>
+    <t>Oju D. Amatya</t>
+  </si>
+  <si>
+    <t>$sudo</t>
+  </si>
+  <si>
+    <t>kinachaiyo</t>
+  </si>
+  <si>
+    <t>༒𝙰sʜᴡɪɴ༒</t>
+  </si>
+  <si>
+    <t>Shrenav</t>
+  </si>
+  <si>
+    <t>luffy</t>
+  </si>
+  <si>
+    <t>YoursTruly</t>
+  </si>
+  <si>
+    <t>Iconic_Whisper</t>
+  </si>
+  <si>
+    <t>MoonLight</t>
+  </si>
+  <si>
+    <t>Nargiza Maharjan</t>
+  </si>
+  <si>
+    <t>Dhiru Piru</t>
+  </si>
+  <si>
+    <t>Yodha</t>
+  </si>
+  <si>
+    <t>Clay69</t>
+  </si>
+  <si>
+    <t>aayush</t>
+  </si>
+  <si>
+    <t>thatguysbroke</t>
+  </si>
+  <si>
+    <t>Anmuu</t>
+  </si>
+  <si>
+    <t>GNU</t>
+  </si>
+  <si>
+    <t>ahlai:3</t>
+  </si>
+  <si>
+    <t>Mandip</t>
+  </si>
+  <si>
+    <t>Cosmic</t>
+  </si>
+  <si>
+    <t>GUTS</t>
+  </si>
+  <si>
+    <t>10y</t>
+  </si>
+  <si>
+    <t>hello_you0</t>
+  </si>
+  <si>
+    <t>golbeda</t>
+  </si>
+  <si>
+    <t>LUCKY_MJ_36457</t>
+  </si>
+  <si>
+    <t>MauLana Rhoades</t>
+  </si>
+  <si>
+    <t>X-night</t>
+  </si>
+  <si>
+    <t>Abyss_Walker</t>
+  </si>
+  <si>
+    <t>Adhyan Tamang</t>
+  </si>
+  <si>
+    <t>Ansees</t>
+  </si>
+  <si>
+    <t>404Ninjaaa</t>
+  </si>
+  <si>
+    <t>SAKUNA</t>
+  </si>
+  <si>
+    <t>Tyrant</t>
+  </si>
+  <si>
+    <t>wigglewiggle</t>
+  </si>
+  <si>
+    <t>krazy</t>
+  </si>
+  <si>
+    <t>Shrawan1234</t>
+  </si>
+  <si>
+    <t>Yugal</t>
+  </si>
+  <si>
+    <t>प्रणय</t>
+  </si>
+  <si>
+    <t>Hexaxe</t>
+  </si>
+  <si>
+    <t>Only Aayush</t>
+  </si>
+  <si>
+    <t>celebbbb</t>
   </si>
 </sst>
 </file>
@@ -377,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,6 +529,374 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>8250</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -43,6 +43,9 @@
     <t>$sudo</t>
   </si>
   <si>
+    <t>YoursTruly</t>
+  </si>
+  <si>
     <t>kinachaiyo</t>
   </si>
   <si>
@@ -53,9 +56,6 @@
   </si>
   <si>
     <t>luffy</t>
-  </si>
-  <si>
-    <t>YoursTruly</t>
   </si>
   <si>
     <t>Iconic_Whisper</t>
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>8750</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -590,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1950</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1900</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -606,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1850</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -614,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1700</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -622,7 +622,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1550</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="14" spans="1:2">

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -14,12 +14,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>User</t>
   </si>
   <si>
     <t>Points</t>
+  </si>
+  <si>
+    <t>0xN1kU_H4X_!</t>
+  </si>
+  <si>
+    <t>DargoTamber</t>
+  </si>
+  <si>
+    <t>kharayo1x</t>
+  </si>
+  <si>
+    <t>p0tato</t>
+  </si>
+  <si>
+    <t>MrBender</t>
+  </si>
+  <si>
+    <t>Oju D. Amatya</t>
+  </si>
+  <si>
+    <t>$sudo</t>
+  </si>
+  <si>
+    <t>YoursTruly</t>
+  </si>
+  <si>
+    <t>kinachaiyo</t>
+  </si>
+  <si>
+    <t>༒𝙰sʜᴡɪɴ༒</t>
+  </si>
+  <si>
+    <t>Shrenav</t>
+  </si>
+  <si>
+    <t>luffy</t>
+  </si>
+  <si>
+    <t>Iconic_Whisper</t>
+  </si>
+  <si>
+    <t>MoonLight</t>
+  </si>
+  <si>
+    <t>Nargiza Maharjan</t>
+  </si>
+  <si>
+    <t>Dhiru Piru</t>
+  </si>
+  <si>
+    <t>Yodha</t>
+  </si>
+  <si>
+    <t>Clay69</t>
+  </si>
+  <si>
+    <t>aayush</t>
+  </si>
+  <si>
+    <t>thatguysbroke</t>
+  </si>
+  <si>
+    <t>Anmuu</t>
+  </si>
+  <si>
+    <t>GNU</t>
+  </si>
+  <si>
+    <t>ahlai:3</t>
+  </si>
+  <si>
+    <t>Mandip</t>
+  </si>
+  <si>
+    <t>Cosmic</t>
+  </si>
+  <si>
+    <t>GUTS</t>
+  </si>
+  <si>
+    <t>10y</t>
+  </si>
+  <si>
+    <t>hello_you0</t>
+  </si>
+  <si>
+    <t>golbeda</t>
+  </si>
+  <si>
+    <t>LUCKY_MJ_36457</t>
+  </si>
+  <si>
+    <t>MauLana Rhoades</t>
+  </si>
+  <si>
+    <t>X-night</t>
+  </si>
+  <si>
+    <t>Abyss_Walker</t>
+  </si>
+  <si>
+    <t>Adhyan Tamang</t>
+  </si>
+  <si>
+    <t>Ansees</t>
+  </si>
+  <si>
+    <t>404Ninjaaa</t>
+  </si>
+  <si>
+    <t>SAKUNA</t>
+  </si>
+  <si>
+    <t>Tyrant</t>
+  </si>
+  <si>
+    <t>wigglewiggle</t>
+  </si>
+  <si>
+    <t>krazy</t>
+  </si>
+  <si>
+    <t>Shrawan1234</t>
+  </si>
+  <si>
+    <t>Yugal</t>
+  </si>
+  <si>
+    <t>प्रणय</t>
+  </si>
+  <si>
+    <t>Hexaxe</t>
+  </si>
+  <si>
+    <t>Only Aayush</t>
+  </si>
+  <si>
+    <t>celebbbb</t>
   </si>
 </sst>
 </file>
@@ -377,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,6 +529,374 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>9200</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>9700</v>
+        <v>9650</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4200</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>9650</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4700</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4650</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>9600</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -55,15 +55,15 @@
     <t>Shrenav</t>
   </si>
   <si>
+    <t>MoonLight</t>
+  </si>
+  <si>
     <t>luffy</t>
   </si>
   <si>
     <t>Iconic_Whisper</t>
   </si>
   <si>
-    <t>MoonLight</t>
-  </si>
-  <si>
     <t>Nargiza Maharjan</t>
   </si>
   <si>
@@ -94,10 +94,10 @@
     <t>Mandip</t>
   </si>
   <si>
+    <t>GUTS</t>
+  </si>
+  <si>
     <t>Cosmic</t>
-  </si>
-  <si>
-    <t>GUTS</t>
   </si>
   <si>
     <t>10y</t>
@@ -515,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +630,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1300</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -638,7 +638,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1200</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -746,8 +746,8 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
+      <c r="A29">
+        <v>1.336614365088055E+18</v>
       </c>
       <c r="B29">
         <v>150</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>150</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>150</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>150</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>150</v>
@@ -787,15 +787,15 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>100</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>100</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>100</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>100</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>100</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>100</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>100</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>100</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>100</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>100</v>
@@ -875,15 +875,15 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>50</v>
@@ -891,9 +891,17 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>50</v>
       </c>
     </row>

--- a/user_total_points.xlsx
+++ b/user_total_points.xlsx
@@ -55,10 +55,10 @@
     <t>Shrenav</t>
   </si>
   <si>
+    <t>luffy</t>
+  </si>
+  <si>
     <t>MoonLight</t>
-  </si>
-  <si>
-    <t>luffy</t>
   </si>
   <si>
     <t>Iconic_Whisper</t>
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10100</v>
+        <v>10550</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -630,7 +630,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1700</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="15" spans="1:2">
